--- a/data/GOZO_demo.xlsx
+++ b/data/GOZO_demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15E79EC-DDE1-3340-83BE-AF1C3E20C7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384586C4-7438-7F42-8D5B-1D6E4CF78D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{A3F24250-45F6-9746-A61A-73CC4F4293E7}"/>
   </bookViews>
@@ -50,14 +50,14 @@
     <t>Age</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,15 +405,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -427,15 +427,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
